--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Itgax.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H2">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I2">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J2">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>23.041831</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N2">
-        <v>69.12549300000001</v>
+        <v>0.022504</v>
       </c>
       <c r="O2">
-        <v>0.9984761160366428</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="P2">
-        <v>0.9984761160366427</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="Q2">
-        <v>3776.805751458275</v>
+        <v>0.07397135812622221</v>
       </c>
       <c r="R2">
-        <v>33991.25176312448</v>
+        <v>0.665742223136</v>
       </c>
       <c r="S2">
-        <v>0.84139178370788</v>
+        <v>0.0428457665802222</v>
       </c>
       <c r="T2">
-        <v>0.8413917837078801</v>
+        <v>0.0428457665802222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H3">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I3">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J3">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.1055</v>
       </c>
       <c r="O3">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689385</v>
       </c>
       <c r="P3">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689384</v>
       </c>
       <c r="Q3">
-        <v>5.764197685777777</v>
+        <v>0.3467818291111111</v>
       </c>
       <c r="R3">
-        <v>51.877779172</v>
+        <v>3.121036462</v>
       </c>
       <c r="S3">
-        <v>0.001284140326943944</v>
+        <v>0.2008633298175188</v>
       </c>
       <c r="T3">
-        <v>0.001284140326943944</v>
+        <v>0.2008633298175187</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>88.060289</v>
       </c>
       <c r="I4">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J4">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>23.041831</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N4">
-        <v>69.12549300000001</v>
+        <v>0.022504</v>
       </c>
       <c r="O4">
-        <v>0.9984761160366428</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="P4">
-        <v>0.9984761160366427</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="Q4">
-        <v>676.3567656497197</v>
+        <v>0.2201898604062222</v>
       </c>
       <c r="R4">
-        <v>6087.210890847477</v>
+        <v>1.981708743656</v>
       </c>
       <c r="S4">
-        <v>0.1506778645560949</v>
+        <v>0.1275385987397785</v>
       </c>
       <c r="T4">
-        <v>0.1506778645560949</v>
+        <v>0.1275385987397785</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>88.060289</v>
       </c>
       <c r="I5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.1055</v>
       </c>
       <c r="O5">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689385</v>
       </c>
       <c r="P5">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689384</v>
       </c>
       <c r="Q5">
         <v>1.032262276611111</v>
@@ -756,10 +756,10 @@
         <v>9.290360489499999</v>
       </c>
       <c r="S5">
-        <v>0.0002299660229644657</v>
+        <v>0.5979080237756235</v>
       </c>
       <c r="T5">
-        <v>0.0002299660229644657</v>
+        <v>0.5979080237756234</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>3.744116</v>
       </c>
       <c r="I6">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J6">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>23.041831</v>
+        <v>0.007501333333333333</v>
       </c>
       <c r="N6">
-        <v>69.12549300000001</v>
+        <v>0.022504</v>
       </c>
       <c r="O6">
-        <v>0.9984761160366428</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="P6">
-        <v>0.9984761160366427</v>
+        <v>0.1758070060310615</v>
       </c>
       <c r="Q6">
-        <v>28.75709603879867</v>
+        <v>0.009361954051555555</v>
       </c>
       <c r="R6">
-        <v>258.813864349188</v>
+        <v>0.084257586464</v>
       </c>
       <c r="S6">
-        <v>0.006406467772667746</v>
+        <v>0.005422640711060856</v>
       </c>
       <c r="T6">
-        <v>0.006406467772667746</v>
+        <v>0.005422640711060855</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.744116</v>
       </c>
       <c r="I7">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J7">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.1055</v>
       </c>
       <c r="O7">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689385</v>
       </c>
       <c r="P7">
-        <v>0.001523883963357278</v>
+        <v>0.8241929939689384</v>
       </c>
       <c r="Q7">
         <v>0.04388935977777778</v>
@@ -880,10 +880,10 @@
         <v>0.395004238</v>
       </c>
       <c r="S7">
-        <v>9.777613448868236E-06</v>
+        <v>0.02542164037579632</v>
       </c>
       <c r="T7">
-        <v>9.777613448868236E-06</v>
+        <v>0.02542164037579631</v>
       </c>
     </row>
   </sheetData>
